--- a/Base_Treinamento.xlsx
+++ b/Base_Treinamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephanieliu/Desktop/GitHub/SegundoSemestre/CD_Projeto3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD98DC3A-1D43-4844-BC6F-403B1D5FE211}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F99E7A5-0307-D24C-842F-9AFFD4881333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>HDI</t>
   </si>
@@ -41,6 +41,15 @@
   </si>
   <si>
     <t>Desemprego</t>
+  </si>
+  <si>
+    <t>Beer_PerCapita</t>
+  </si>
+  <si>
+    <t>Spirit_PerCapita</t>
+  </si>
+  <si>
+    <t>Wine_PerCapita</t>
   </si>
   <si>
     <t>Croatia</t>
@@ -319,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -330,6 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,24 +678,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,13 +708,22 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>828</v>
@@ -737,12 +747,21 @@
         <v>13.103400230407701</v>
       </c>
       <c r="I2">
+        <v>230</v>
+      </c>
+      <c r="J2">
+        <v>87</v>
+      </c>
+      <c r="K2">
+        <v>254</v>
+      </c>
+      <c r="L2">
         <v>5.4880000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>855</v>
@@ -766,12 +785,21 @@
         <v>0.15000000596046401</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>42</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
         <v>6.375</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>696</v>
@@ -795,12 +823,21 @@
         <v>26.5506992340088</v>
       </c>
       <c r="I4">
+        <v>225</v>
+      </c>
+      <c r="J4">
+        <v>76</v>
+      </c>
+      <c r="K4">
+        <v>81</v>
+      </c>
+      <c r="L4">
         <v>4.4589999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>486</v>
@@ -824,12 +861,21 @@
         <v>2.59920001029968</v>
       </c>
       <c r="I5">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
         <v>3.9159999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>772</v>
@@ -853,12 +899,21 @@
         <v>3.8589999675750701</v>
       </c>
       <c r="I6">
+        <v>238</v>
+      </c>
+      <c r="J6">
+        <v>68</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>6.7779999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>922</v>
@@ -882,12 +937,21 @@
         <v>4.8692002296447798</v>
       </c>
       <c r="I7">
+        <v>249</v>
+      </c>
+      <c r="J7">
+        <v>158</v>
+      </c>
+      <c r="K7">
+        <v>84</v>
+      </c>
+      <c r="L7">
         <v>7.1040000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>662</v>
@@ -911,12 +975,21 @@
         <v>9.3000001907348597</v>
       </c>
       <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
         <v>5.1509999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>703</v>
@@ -940,12 +1013,21 @@
         <v>5.1599998474121103</v>
       </c>
       <c r="I9">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>101</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
         <v>5.9870000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>932</v>
@@ -969,12 +1051,21 @@
         <v>6.9899997711181596</v>
       </c>
       <c r="I10">
+        <v>152</v>
+      </c>
+      <c r="J10">
+        <v>60</v>
+      </c>
+      <c r="K10">
+        <v>186</v>
+      </c>
+      <c r="L10">
         <v>7.2910000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>922</v>
@@ -998,12 +1089,21 @@
         <v>6.9988999366760298</v>
       </c>
       <c r="I11">
+        <v>240</v>
+      </c>
+      <c r="J11">
+        <v>122</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
         <v>7.4039999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>878</v>
@@ -1027,12 +1127,21 @@
         <v>11.6881999969482</v>
       </c>
       <c r="I12">
+        <v>85</v>
+      </c>
+      <c r="J12">
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <v>237</v>
+      </c>
+      <c r="L12">
         <v>5.9770000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>785</v>
@@ -1056,12 +1165,21 @@
         <v>3.3145999908447301</v>
       </c>
       <c r="I13">
+        <v>285</v>
+      </c>
+      <c r="J13">
+        <v>104</v>
+      </c>
+      <c r="K13">
+        <v>18</v>
+      </c>
+      <c r="L13">
         <v>6.7009999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>649</v>
@@ -1085,12 +1203,21 @@
         <v>2.5829999446868901</v>
       </c>
       <c r="I14">
+        <v>53</v>
+      </c>
+      <c r="J14">
+        <v>69</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
         <v>6.3239999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>860</v>
@@ -1114,12 +1241,21 @@
         <v>6.1607999801635698</v>
       </c>
       <c r="I15">
+        <v>343</v>
+      </c>
+      <c r="J15">
+        <v>215</v>
+      </c>
+      <c r="K15">
+        <v>56</v>
+      </c>
+      <c r="L15">
         <v>5.835</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>697</v>
@@ -1143,12 +1279,21 @@
         <v>4.1849999427795401</v>
       </c>
       <c r="I16">
+        <v>109</v>
+      </c>
+      <c r="J16">
+        <v>226</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
         <v>5.8970000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>934</v>
@@ -1172,12 +1317,21 @@
         <v>8.37390041351318</v>
       </c>
       <c r="I17">
+        <v>313</v>
+      </c>
+      <c r="J17">
+        <v>118</v>
+      </c>
+      <c r="K17">
+        <v>165</v>
+      </c>
+      <c r="L17">
         <v>6.907</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>614</v>
@@ -1201,12 +1355,21 @@
         <v>6.7270998954772896</v>
       </c>
       <c r="I18">
+        <v>69</v>
+      </c>
+      <c r="J18">
+        <v>98</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
         <v>4.8710000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>696</v>
@@ -1230,12 +1393,21 @@
         <v>2.7077999114990199</v>
       </c>
       <c r="I19">
+        <v>71</v>
+      </c>
+      <c r="J19">
+        <v>186</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>5.2789999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>785</v>
@@ -1259,12 +1431,21 @@
         <v>2.9721999168396001</v>
       </c>
       <c r="I20">
+        <v>197</v>
+      </c>
+      <c r="J20">
+        <v>156</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
         <v>6.1680000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21">
         <v>915</v>
@@ -1288,12 +1469,21 @@
         <v>5.0999999046325701</v>
       </c>
       <c r="I21">
+        <v>203</v>
+      </c>
+      <c r="J21">
+        <v>79</v>
+      </c>
+      <c r="K21">
+        <v>175</v>
+      </c>
+      <c r="L21">
         <v>7.3339999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>732</v>
@@ -1317,12 +1507,21 @@
         <v>15.5142002105713</v>
       </c>
       <c r="I22">
+        <v>51</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
         <v>5.0449999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>788</v>
@@ -1346,12 +1545,21 @@
         <v>6.8134999275207502</v>
       </c>
       <c r="I23">
+        <v>98</v>
+      </c>
+      <c r="J23">
+        <v>31</v>
+      </c>
+      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="L23">
         <v>5.6479999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>421</v>
@@ -1375,12 +1583,21 @@
         <v>1.36699998378754</v>
       </c>
       <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>4.0730000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>732</v>
@@ -1404,12 +1621,21 @@
         <v>13.191800117492701</v>
       </c>
       <c r="I25">
+        <v>82</v>
+      </c>
+      <c r="J25">
+        <v>97</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
         <v>5.51</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26">
         <v>432</v>
@@ -1433,12 +1659,21 @@
         <v>3.0806000232696502</v>
       </c>
       <c r="I26">
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>152</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
         <v>3.6219999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>930</v>
@@ -1462,12 +1697,21 @@
         <v>4.0799999237060502</v>
       </c>
       <c r="I27">
+        <v>60</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
         <v>6.7389999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28">
         <v>743</v>
@@ -1491,12 +1735,21 @@
         <v>7.2350997924804696</v>
       </c>
       <c r="I28">
+        <v>77</v>
+      </c>
+      <c r="J28">
+        <v>189</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+      <c r="L28">
         <v>4.907</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>802</v>
@@ -1520,12 +1773,21 @@
         <v>7.8406000137329102</v>
       </c>
       <c r="I29">
+        <v>115</v>
+      </c>
+      <c r="J29">
+        <v>35</v>
+      </c>
+      <c r="K29">
+        <v>220</v>
+      </c>
+      <c r="L29">
         <v>6.5449999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>805</v>
@@ -1549,12 +1811,21 @@
         <v>5.8400001525878897</v>
       </c>
       <c r="I30">
+        <v>142</v>
+      </c>
+      <c r="J30">
+        <v>373</v>
+      </c>
+      <c r="K30">
+        <v>42</v>
+      </c>
+      <c r="L30">
         <v>5.8019999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31">
         <v>934</v>
@@ -1578,12 +1849,21 @@
         <v>4.1217999458312997</v>
       </c>
       <c r="I31">
+        <v>346</v>
+      </c>
+      <c r="J31">
+        <v>117</v>
+      </c>
+      <c r="K31">
+        <v>175</v>
+      </c>
+      <c r="L31">
         <v>6.9939999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>785</v>
@@ -1607,12 +1887,21 @@
         <v>15.257399559021</v>
       </c>
       <c r="I32">
+        <v>283</v>
+      </c>
+      <c r="J32">
+        <v>131</v>
+      </c>
+      <c r="K32">
+        <v>127</v>
+      </c>
+      <c r="L32">
         <v>5.1769999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>951</v>
@@ -1636,12 +1925,21 @@
         <v>4.6788997650146502</v>
       </c>
       <c r="I33">
+        <v>169</v>
+      </c>
+      <c r="J33">
+        <v>71</v>
+      </c>
+      <c r="K33">
+        <v>129</v>
+      </c>
+      <c r="L33">
         <v>7.4980000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>904</v>
@@ -1665,12 +1963,21 @@
         <v>6.2906999588012704</v>
       </c>
       <c r="I34">
+        <v>236</v>
+      </c>
+      <c r="J34">
+        <v>133</v>
+      </c>
+      <c r="K34">
+        <v>271</v>
+      </c>
+      <c r="L34">
         <v>6.8710000000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>797</v>
@@ -1694,12 +2001,21 @@
         <v>4.96000003814697</v>
       </c>
       <c r="I35">
+        <v>124</v>
+      </c>
+      <c r="J35">
+        <v>246</v>
+      </c>
+      <c r="K35">
+        <v>12</v>
+      </c>
+      <c r="L35">
         <v>5.9189999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>938</v>
@@ -1723,12 +2039,21 @@
         <v>5.70989990234375</v>
       </c>
       <c r="I36">
+        <v>261</v>
+      </c>
+      <c r="J36">
+        <v>72</v>
+      </c>
+      <c r="K36">
+        <v>212</v>
+      </c>
+      <c r="L36">
         <v>7.3129999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>689</v>
@@ -1752,12 +2077,21 @@
         <v>2.0834000110626198</v>
       </c>
       <c r="I37">
+        <v>111</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
         <v>5.0609999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>928</v>
@@ -1781,12 +2115,21 @@
         <v>6.0062999725341797</v>
       </c>
       <c r="I38">
+        <v>251</v>
+      </c>
+      <c r="J38">
+        <v>88</v>
+      </c>
+      <c r="K38">
+        <v>190</v>
+      </c>
+      <c r="L38">
         <v>7.3390000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>709</v>
@@ -1810,12 +2153,21 @@
         <v>7.0004000663757298</v>
       </c>
       <c r="I39">
+        <v>263</v>
+      </c>
+      <c r="J39">
+        <v>114</v>
+      </c>
+      <c r="K39">
+        <v>8</v>
+      </c>
+      <c r="L39">
         <v>5.9560000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>746</v>
@@ -1839,12 +2191,21 @@
         <v>9.3500003814697301</v>
       </c>
       <c r="I40">
+        <v>206</v>
+      </c>
+      <c r="J40">
+        <v>237</v>
+      </c>
+      <c r="K40">
+        <v>45</v>
+      </c>
+      <c r="L40">
         <v>4.3239999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>766</v>
@@ -1868,12 +2229,21 @@
         <v>25.4081001281738</v>
       </c>
       <c r="I41">
+        <v>76</v>
+      </c>
+      <c r="J41">
+        <v>173</v>
+      </c>
+      <c r="K41">
+        <v>8</v>
+      </c>
+      <c r="L41">
         <v>5.1630000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>867</v>
@@ -1897,12 +2267,21 @@
         <v>12.9497995376587</v>
       </c>
       <c r="I42">
+        <v>192</v>
+      </c>
+      <c r="J42">
+        <v>154</v>
+      </c>
+      <c r="K42">
+        <v>113</v>
+      </c>
+      <c r="L42">
         <v>5.5460000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>576</v>
@@ -1926,12 +2305,21 @@
         <v>0.71619999408721902</v>
       </c>
       <c r="I43">
+        <v>57</v>
+      </c>
+      <c r="J43">
+        <v>65</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
         <v>3.907</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>915</v>
@@ -1955,12 +2343,21 @@
         <v>7.8296999931335396</v>
       </c>
       <c r="I44">
+        <v>295</v>
+      </c>
+      <c r="J44">
+        <v>84</v>
+      </c>
+      <c r="K44">
+        <v>212</v>
+      </c>
+      <c r="L44">
         <v>6.9290000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>899</v>
@@ -1984,12 +2381,21 @@
         <v>10.056799888610801</v>
       </c>
       <c r="I45">
+        <v>127</v>
+      </c>
+      <c r="J45">
+        <v>151</v>
+      </c>
+      <c r="K45">
+        <v>370</v>
+      </c>
+      <c r="L45">
         <v>6.4779999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>855</v>
@@ -2013,12 +2419,21 @@
         <v>7.86210012435913</v>
       </c>
       <c r="I46">
+        <v>343</v>
+      </c>
+      <c r="J46">
+        <v>244</v>
+      </c>
+      <c r="K46">
+        <v>56</v>
+      </c>
+      <c r="L46">
         <v>5.8129999999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>747</v>
@@ -2042,12 +2457,21 @@
         <v>8.6918001174926793</v>
       </c>
       <c r="I47">
+        <v>159</v>
+      </c>
+      <c r="J47">
+        <v>76</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
         <v>6.4809999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>868</v>
@@ -2071,12 +2495,21 @@
         <v>6.7617001533508301</v>
       </c>
       <c r="I48">
+        <v>224</v>
+      </c>
+      <c r="J48">
+        <v>194</v>
+      </c>
+      <c r="K48">
+        <v>59</v>
+      </c>
+      <c r="L48">
         <v>5.5170000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>862</v>
@@ -2100,12 +2533,21 @@
         <v>1.6355019807815601</v>
       </c>
       <c r="I49">
+        <v>16</v>
+      </c>
+      <c r="J49">
+        <v>135</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
         <v>6.5730000000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50">
         <v>894</v>
@@ -2129,12 +2571,21 @@
         <v>8.0001001358032209</v>
       </c>
       <c r="I50">
+        <v>270</v>
+      </c>
+      <c r="J50">
+        <v>51</v>
+      </c>
+      <c r="K50">
+        <v>276</v>
+      </c>
+      <c r="L50">
         <v>5.7679999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B51">
         <v>585</v>
@@ -2158,12 +2609,21 @@
         <v>2.7574000358581499</v>
       </c>
       <c r="I51">
+        <v>58</v>
+      </c>
+      <c r="J51">
+        <v>22</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
         <v>4.3559999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>810</v>
@@ -2187,12 +2647,21 @@
         <v>17.723300933837901</v>
       </c>
       <c r="I52">
+        <v>31</v>
+      </c>
+      <c r="J52">
+        <v>114</v>
+      </c>
+      <c r="K52">
+        <v>128</v>
+      </c>
+      <c r="L52">
         <v>5.1609999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>906</v>
@@ -2216,12 +2685,21 @@
         <v>6.0138001441955602</v>
       </c>
       <c r="I53">
+        <v>279</v>
+      </c>
+      <c r="J53">
+        <v>75</v>
+      </c>
+      <c r="K53">
+        <v>191</v>
+      </c>
+      <c r="L53">
         <v>7.1189999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>679</v>
@@ -2245,12 +2723,21 @@
         <v>4.4183001518249503</v>
       </c>
       <c r="I54">
+        <v>52</v>
+      </c>
+      <c r="J54">
+        <v>69</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
         <v>6.0679999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B55">
         <v>810</v>
@@ -2274,12 +2761,21 @@
         <v>7.5746002197265598</v>
       </c>
       <c r="I55">
+        <v>231</v>
+      </c>
+      <c r="J55">
+        <v>252</v>
+      </c>
+      <c r="K55">
+        <v>94</v>
+      </c>
+      <c r="L55">
         <v>4.2169999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B56">
         <v>835</v>
@@ -2303,12 +2799,21 @@
         <v>5.1149001121520996</v>
       </c>
       <c r="I56">
+        <v>234</v>
+      </c>
+      <c r="J56">
+        <v>215</v>
+      </c>
+      <c r="K56">
+        <v>185</v>
+      </c>
+      <c r="L56">
         <v>5.1449999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>868</v>
@@ -2332,12 +2837,21 @@
         <v>23.539100646972699</v>
       </c>
       <c r="I57">
+        <v>133</v>
+      </c>
+      <c r="J57">
+        <v>112</v>
+      </c>
+      <c r="K57">
+        <v>218</v>
+      </c>
+      <c r="L57">
         <v>5.0330000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B58">
         <v>645</v>
@@ -2361,12 +2875,21 @@
         <v>23.351800918579102</v>
       </c>
       <c r="I58">
+        <v>376</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
         <v>4.5739999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B59">
         <v>907</v>
@@ -2390,12 +2913,21 @@
         <v>3.0999999046325701</v>
       </c>
       <c r="I59">
+        <v>77</v>
+      </c>
+      <c r="J59">
+        <v>202</v>
+      </c>
+      <c r="K59">
+        <v>16</v>
+      </c>
+      <c r="L59">
         <v>5.9210000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B60">
         <v>889</v>
@@ -2419,12 +2951,21 @@
         <v>19.634700775146499</v>
       </c>
       <c r="I60">
+        <v>284</v>
+      </c>
+      <c r="J60">
+        <v>157</v>
+      </c>
+      <c r="K60">
+        <v>112</v>
+      </c>
+      <c r="L60">
         <v>6.3609999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>943</v>
@@ -2448,12 +2989,21 @@
         <v>4.9179000854492196</v>
       </c>
       <c r="I61">
+        <v>185</v>
+      </c>
+      <c r="J61">
+        <v>100</v>
+      </c>
+      <c r="K61">
+        <v>280</v>
+      </c>
+      <c r="L61">
         <v>7.5090000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B62">
         <v>735</v>
@@ -2477,12 +3027,21 @@
         <v>15.2749996185303</v>
       </c>
       <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="J62">
+        <v>21</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
         <v>5.3029999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B63">
         <v>842</v>
@@ -2506,12 +3065,21 @@
         <v>6.7382001876831099</v>
       </c>
       <c r="I63">
+        <v>130</v>
+      </c>
+      <c r="J63">
+        <v>124</v>
+      </c>
+      <c r="K63">
+        <v>172</v>
+      </c>
+      <c r="L63">
         <v>6.7050000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B64">
         <v>933</v>
@@ -2535,12 +3103,21 @@
         <v>2.9779000282287602</v>
       </c>
       <c r="I64">
+        <v>233</v>
+      </c>
+      <c r="J64">
+        <v>61</v>
+      </c>
+      <c r="K64">
+        <v>78</v>
+      </c>
+      <c r="L64">
         <v>7.5010000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B65">
         <v>885</v>
@@ -2564,12 +3141,21 @@
         <v>3.9514000415802002</v>
       </c>
       <c r="I65">
+        <v>361</v>
+      </c>
+      <c r="J65">
+        <v>170</v>
+      </c>
+      <c r="K65">
+        <v>134</v>
+      </c>
+      <c r="L65">
         <v>6.5960000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B66">
         <v>920</v>
@@ -2593,12 +3179,21 @@
         <v>4.8131999969482404</v>
       </c>
       <c r="I66">
+        <v>219</v>
+      </c>
+      <c r="J66">
+        <v>126</v>
+      </c>
+      <c r="K66">
+        <v>195</v>
+      </c>
+      <c r="L66">
         <v>6.7249999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B67">
         <v>845</v>
@@ -2622,12 +3217,21 @@
         <v>11.066200256347701</v>
       </c>
       <c r="I67">
+        <v>194</v>
+      </c>
+      <c r="J67">
+        <v>67</v>
+      </c>
+      <c r="K67">
+        <v>339</v>
+      </c>
+      <c r="L67">
         <v>5.1230000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B68">
         <v>776</v>
@@ -2651,12 +3255,21 @@
         <v>16.6039009094238</v>
       </c>
       <c r="I68">
+        <v>52</v>
+      </c>
+      <c r="J68">
+        <v>100</v>
+      </c>
+      <c r="K68">
+        <v>149</v>
+      </c>
+      <c r="L68">
         <v>4.2519999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B69">
         <v>758</v>
@@ -2680,12 +3293,21 @@
         <v>11.5999002456665</v>
       </c>
       <c r="I69">
+        <v>245</v>
+      </c>
+      <c r="J69">
+        <v>145</v>
+      </c>
+      <c r="K69">
+        <v>16</v>
+      </c>
+      <c r="L69">
         <v>6.952</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>787</v>
@@ -2709,37 +3331,46 @@
         <v>10.838600158691399</v>
       </c>
       <c r="I70">
+        <v>51</v>
+      </c>
+      <c r="J70">
+        <v>22</v>
+      </c>
+      <c r="K70">
+        <v>7</v>
+      </c>
+      <c r="L70">
         <v>5.3890000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -2918,6 +3549,9 @@
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
